--- a/decArgo_doc/decoder_user_manual/_CoriolisArgoFloatVersions_20200924.xlsx
+++ b/decArgo_doc/decoder_user_manual/_CoriolisArgoFloatVersions_20200924.xlsx
@@ -17,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Apex floats'!$A$2:$I$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NKE floats'!$A$2:$I$75</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Apex floats'!$A$2:$H$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'NKE floats'!$A$2:$H$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'NKE floats'!$A$1:$H$87</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1258,9 +1258,6 @@
     <t>Update date: 06/08/2020</t>
   </si>
   <si>
-    <t>Update date: 09/06/2020</t>
-  </si>
-  <si>
     <t>ARVOR ARN DO Ir Ice</t>
   </si>
   <si>
@@ -1298,6 +1295,9 @@
   </si>
   <si>
     <t>1121 -&gt; 1121, 1122, 1123, 1321, 1322</t>
+  </si>
+  <si>
+    <t>Update date: 09/24/2020</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2146,6 +2146,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2528,8 +2529,8 @@
   <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,17 +2546,17 @@
     <col min="9" max="9" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
+    <row r="1" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="120" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
       <c r="I1" s="119"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3697,7 +3698,7 @@
         <v>35</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F43" s="27" t="s">
         <v>47</v>
@@ -3706,7 +3707,7 @@
         <v>41</v>
       </c>
       <c r="H43" s="54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I43" s="13" t="s">
         <v>369</v>
@@ -4611,7 +4612,7 @@
         <v>222</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F75" s="18" t="s">
         <v>128</v>
@@ -4620,10 +4621,10 @@
         <v>41</v>
       </c>
       <c r="H75" s="58" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I75" s="72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4678,7 +4679,7 @@
         <v>96</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D79" s="45" t="s">
         <v>301</v>
@@ -4687,7 +4688,7 @@
         <v>84</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G79" s="15" t="s">
         <v>351</v>
@@ -4759,7 +4760,7 @@
         <v>135</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H82" s="59" t="s">
         <v>300</v>
@@ -4796,7 +4797,7 @@
         <v>136</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>186</v>
@@ -4829,7 +4830,7 @@
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5043,11 +5044,12 @@
       <c r="D105" s="95"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I75"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0.31496062992125984" footer="0"/>
-  <pageSetup paperSize="8" scale="64" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="61" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F</oddHeader>
   </headerFooter>
@@ -5066,9 +5068,9 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5084,20 +5086,20 @@
     <col min="9" max="9" width="59.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="120" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
@@ -5123,7 +5125,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -5147,7 +5149,7 @@
       </c>
       <c r="H3" s="40"/>
     </row>
-    <row r="4" spans="1:9" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>2</v>
       </c>
@@ -5171,7 +5173,7 @@
       </c>
       <c r="H4" s="36"/>
     </row>
-    <row r="5" spans="1:9" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>3</v>
       </c>
@@ -5197,7 +5199,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -5223,7 +5225,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="30" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>5</v>
       </c>
@@ -5249,7 +5251,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61">
         <v>6</v>
       </c>
@@ -5956,7 +5958,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="70" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C36" s="16">
         <v>1123</v>
@@ -5977,7 +5979,7 @@
         <v>372</v>
       </c>
       <c r="I36" s="89" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6058,88 +6060,88 @@
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="127" t="s">
+      <c r="B41" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="128"/>
-      <c r="D41" s="129"/>
-      <c r="F41" s="127" t="s">
+      <c r="C41" s="129"/>
+      <c r="D41" s="130"/>
+      <c r="F41" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="128"/>
-      <c r="H41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="130"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="130" t="s">
+      <c r="B42" s="131" t="s">
         <v>208</v>
       </c>
-      <c r="C42" s="131"/>
-      <c r="D42" s="132"/>
-      <c r="F42" s="130" t="s">
+      <c r="C42" s="132"/>
+      <c r="D42" s="133"/>
+      <c r="F42" s="131" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="133"/>
-      <c r="H42" s="132"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="133"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="120" t="s">
+      <c r="B43" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="121"/>
-      <c r="D43" s="122"/>
-      <c r="F43" s="120" t="s">
+      <c r="C43" s="122"/>
+      <c r="D43" s="123"/>
+      <c r="F43" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="G43" s="126"/>
-      <c r="H43" s="122"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="123"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="120" t="s">
+      <c r="B44" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="121"/>
-      <c r="D44" s="122"/>
-      <c r="F44" s="120" t="s">
+      <c r="C44" s="122"/>
+      <c r="D44" s="123"/>
+      <c r="F44" s="121" t="s">
         <v>176</v>
       </c>
-      <c r="G44" s="126"/>
-      <c r="H44" s="122"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="123"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="120" t="s">
+      <c r="B45" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="C45" s="121"/>
-      <c r="D45" s="122"/>
-      <c r="F45" s="134" t="s">
+      <c r="C45" s="122"/>
+      <c r="D45" s="123"/>
+      <c r="F45" s="135" t="s">
         <v>177</v>
       </c>
-      <c r="G45" s="126"/>
-      <c r="H45" s="122"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="123"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="121" t="s">
         <v>210</v>
       </c>
-      <c r="C46" s="121"/>
-      <c r="D46" s="122"/>
-      <c r="F46" s="120" t="s">
+      <c r="C46" s="122"/>
+      <c r="D46" s="123"/>
+      <c r="F46" s="121" t="s">
         <v>213</v>
       </c>
-      <c r="G46" s="126"/>
-      <c r="H46" s="122"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="123"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="123" t="s">
+      <c r="B47" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="C47" s="124"/>
-      <c r="D47" s="125"/>
-      <c r="F47" s="120" t="s">
+      <c r="C47" s="125"/>
+      <c r="D47" s="126"/>
+      <c r="F47" s="121" t="s">
         <v>214</v>
       </c>
-      <c r="G47" s="126"/>
-      <c r="H47" s="122"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="105" t="s">
@@ -6147,11 +6149,11 @@
       </c>
       <c r="C48" s="104"/>
       <c r="D48" s="106"/>
-      <c r="F48" s="120" t="s">
+      <c r="F48" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="G48" s="126"/>
-      <c r="H48" s="122"/>
+      <c r="G48" s="127"/>
+      <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="105" t="s">
@@ -6159,134 +6161,134 @@
       </c>
       <c r="C49" s="103"/>
       <c r="D49" s="106"/>
-      <c r="F49" s="120" t="s">
+      <c r="F49" s="121" t="s">
         <v>216</v>
       </c>
-      <c r="G49" s="126"/>
-      <c r="H49" s="122"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50"/>
-      <c r="B50" s="130" t="s">
+      <c r="B50" s="131" t="s">
         <v>250</v>
       </c>
-      <c r="C50" s="131"/>
-      <c r="D50" s="132"/>
-      <c r="F50" s="120" t="s">
+      <c r="C50" s="132"/>
+      <c r="D50" s="133"/>
+      <c r="F50" s="121" t="s">
         <v>217</v>
       </c>
-      <c r="G50" s="126"/>
-      <c r="H50" s="122"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="123"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51"/>
-      <c r="B51" s="120" t="s">
+      <c r="B51" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="122"/>
-      <c r="F51" s="120" t="s">
+      <c r="C51" s="122"/>
+      <c r="D51" s="123"/>
+      <c r="F51" s="121" t="s">
         <v>218</v>
       </c>
-      <c r="G51" s="126"/>
-      <c r="H51" s="122"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="123"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52"/>
-      <c r="B52" s="120" t="s">
+      <c r="B52" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="C52" s="121"/>
-      <c r="D52" s="122"/>
-      <c r="F52" s="120" t="s">
+      <c r="C52" s="122"/>
+      <c r="D52" s="123"/>
+      <c r="F52" s="121" t="s">
         <v>219</v>
       </c>
-      <c r="G52" s="126"/>
-      <c r="H52" s="122"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="123"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53"/>
-      <c r="B53" s="120" t="s">
+      <c r="B53" s="121" t="s">
         <v>252</v>
       </c>
-      <c r="C53" s="121"/>
-      <c r="D53" s="122"/>
-      <c r="F53" s="120" t="s">
+      <c r="C53" s="122"/>
+      <c r="D53" s="123"/>
+      <c r="F53" s="121" t="s">
         <v>211</v>
       </c>
-      <c r="G53" s="126"/>
-      <c r="H53" s="122"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="123"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54"/>
-      <c r="B54" s="120" t="s">
+      <c r="B54" s="121" t="s">
         <v>290</v>
       </c>
-      <c r="C54" s="121"/>
-      <c r="D54" s="122"/>
-      <c r="F54" s="123" t="s">
+      <c r="C54" s="122"/>
+      <c r="D54" s="123"/>
+      <c r="F54" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="G54" s="135"/>
-      <c r="H54" s="125"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="126"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55"/>
-      <c r="B55" s="123" t="s">
+      <c r="B55" s="124" t="s">
         <v>253</v>
       </c>
-      <c r="C55" s="124"/>
-      <c r="D55" s="125"/>
-      <c r="F55" s="136" t="s">
+      <c r="C55" s="125"/>
+      <c r="D55" s="126"/>
+      <c r="F55" s="137" t="s">
         <v>327</v>
       </c>
-      <c r="G55" s="137"/>
-      <c r="H55" s="138"/>
+      <c r="G55" s="138"/>
+      <c r="H55" s="139"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56"/>
-      <c r="B56" s="123" t="s">
+      <c r="B56" s="124" t="s">
         <v>291</v>
       </c>
-      <c r="C56" s="124"/>
-      <c r="D56" s="125"/>
-      <c r="F56" s="130" t="s">
+      <c r="C56" s="125"/>
+      <c r="D56" s="126"/>
+      <c r="F56" s="131" t="s">
         <v>255</v>
       </c>
-      <c r="G56" s="133"/>
-      <c r="H56" s="132"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="133"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57"/>
-      <c r="B57" s="123" t="s">
-        <v>387</v>
-      </c>
-      <c r="C57" s="124"/>
-      <c r="D57" s="125"/>
-      <c r="F57" s="120" t="s">
+      <c r="B57" s="124" t="s">
+        <v>386</v>
+      </c>
+      <c r="C57" s="125"/>
+      <c r="D57" s="126"/>
+      <c r="F57" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="G57" s="126"/>
-      <c r="H57" s="122"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="123"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="123" t="s">
+      <c r="B58" s="124" t="s">
         <v>373</v>
       </c>
-      <c r="C58" s="124"/>
-      <c r="D58" s="125"/>
-      <c r="F58" s="120" t="s">
+      <c r="C58" s="125"/>
+      <c r="D58" s="126"/>
+      <c r="F58" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="G58" s="126"/>
-      <c r="H58" s="122"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="123"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F59" s="120" t="s">
+      <c r="F59" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="G59" s="126"/>
-      <c r="H59" s="122"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="123"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F60" s="73" t="s">
@@ -6303,25 +6305,25 @@
       <c r="H61" s="75"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="123" t="s">
+      <c r="F62" s="124" t="s">
         <v>259</v>
       </c>
-      <c r="G62" s="135"/>
-      <c r="H62" s="125"/>
+      <c r="G62" s="136"/>
+      <c r="H62" s="126"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F63" s="123" t="s">
+      <c r="F63" s="124" t="s">
         <v>291</v>
       </c>
-      <c r="G63" s="135"/>
-      <c r="H63" s="125"/>
+      <c r="G63" s="136"/>
+      <c r="H63" s="126"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F64" s="123" t="s">
-        <v>388</v>
-      </c>
-      <c r="G64" s="135"/>
-      <c r="H64" s="125"/>
+      <c r="F64" s="124" t="s">
+        <v>387</v>
+      </c>
+      <c r="G64" s="136"/>
+      <c r="H64" s="126"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I39"/>
@@ -6397,17 +6399,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="120" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6463,28 +6465,28 @@
     </row>
     <row r="4" spans="1:9" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="F5" s="127" t="s">
+      <c r="C5" s="129"/>
+      <c r="D5" s="130"/>
+      <c r="F5" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="128"/>
-      <c r="H5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="130"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="137" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="139"/>
-      <c r="F6" s="136" t="s">
+      <c r="C6" s="138"/>
+      <c r="D6" s="140"/>
+      <c r="F6" s="137" t="s">
         <v>259</v>
       </c>
-      <c r="G6" s="137"/>
-      <c r="H6" s="139"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6520,17 +6522,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="120" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6638,36 +6640,36 @@
     </row>
     <row r="6" spans="1:9" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="129"/>
+      <c r="C7" s="130"/>
       <c r="D7" s="21"/>
       <c r="E7" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="137" t="s">
         <v>314</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="21"/>
       <c r="E8" s="23" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="21"/>
       <c r="E9" s="94" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
       <c r="D10" s="21"/>
       <c r="E10" s="93"/>
     </row>
@@ -6766,17 +6768,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6830,28 +6832,28 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="F5" s="127" t="s">
+      <c r="C5" s="129"/>
+      <c r="D5" s="130"/>
+      <c r="F5" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="128"/>
-      <c r="H5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="130"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="137" t="s">
         <v>367</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="139"/>
-      <c r="F6" s="136" t="s">
+      <c r="C6" s="138"/>
+      <c r="D6" s="140"/>
+      <c r="F6" s="137" t="s">
         <v>367</v>
       </c>
-      <c r="G6" s="137"/>
-      <c r="H6" s="139"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="5">
